--- a/excel/excel-training/Level 2/Named Ranges - BEGIN.xlsx
+++ b/excel/excel-training/Level 2/Named Ranges - BEGIN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonac\Dropbox\Excel Campus\Courses\Elevate\Course Files\Stage 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai_akella/Desktop/PSSM/GITHUB/data-science/excel/excel-training/Level 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32514684-3EE1-4B16-A92B-7F1B895AAF88}" xr6:coauthVersionLast="42" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3560329D-EFD1-964F-B222-CDC21F2C74E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6ED9094-A32A-4276-9E40-B1715EAF1B00}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{F6ED9094-A32A-4276-9E40-B1715EAF1B00}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="8" r:id="rId1"/>
@@ -19,8 +19,11 @@
     <sheet name="Table" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="Expenses">Sheet1!$B$6:$B$17</definedName>
+    <definedName name="rngChange">Sheet1!$C$2</definedName>
     <definedName name="rngExpenses">Sheet2!$B$4:$B$15</definedName>
     <definedName name="rngPctChange">Sheet2!$F$3</definedName>
+    <definedName name="rngPctSplit">Table!$F$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -399,7 +402,9 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FE61B104-A3CE-4907-AB8A-3ED5672EA5D6}" name="Month" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{750FC804-92E0-452A-BAD6-C6C5C52327FB}" name="Expenses" totalsRowFunction="sum" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{D0867CFA-05CA-4CBD-A672-610DBB3CBEEC}" name="Expense Split" dataDxfId="2" totalsRowDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{D0867CFA-05CA-4CBD-A672-610DBB3CBEEC}" name="Expense Split" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="0">
+      <calculatedColumnFormula>tblExpenses[[#This Row],[Expenses]]*rngPctSplit</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -704,16 +709,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C584DA98-D027-46AA-A867-4EF18DEF8E21}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="4.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="19" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="19" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="20" t="s">
         <v>38</v>
       </c>
@@ -726,17 +731,17 @@
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="15">
         <v>1</v>
       </c>
@@ -744,7 +749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="15">
         <v>2</v>
       </c>
@@ -752,7 +757,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="15">
         <v>3</v>
       </c>
@@ -760,17 +765,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C10" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11" s="17" t="s">
         <v>37</v>
       </c>
@@ -793,18 +798,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33990CE2-B35A-40A2-9F74-83826D227C4B}">
   <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="161" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
@@ -812,7 +817,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
@@ -820,7 +825,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -831,116 +836,152 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3">
         <v>5313</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="3">
+        <f>B6*rngChange</f>
+        <v>531.30000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="3">
         <v>5993</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
+        <f>B7*rngChange</f>
+        <v>599.30000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="3">
         <v>7654</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <f>B8*rngChange</f>
+        <v>765.40000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3">
         <v>5748</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3">
+        <f>B9*rngChange</f>
+        <v>574.80000000000007</v>
+      </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3">
         <v>7080</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <f>B10*rngChange</f>
+        <v>708</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3">
         <v>6098</v>
       </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <f>B11*rngChange</f>
+        <v>609.80000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="3">
         <v>7733</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <f>B12*rngChange</f>
+        <v>773.30000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="3">
         <v>5954</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="3">
+        <f>B13*rngChange</f>
+        <v>595.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="3">
         <v>7932</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <f>B14*rngChange</f>
+        <v>793.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="3">
         <v>7086</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="3">
+        <f>B15*rngChange</f>
+        <v>708.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="3">
         <v>6912</v>
       </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="3">
+        <f>B16*rngChange</f>
+        <v>691.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="3">
         <v>5903</v>
       </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="3">
+        <f>B17*rngChange</f>
+        <v>590.30000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -950,23 +991,32 @@
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <f>MAX(Expenses)</f>
+        <v>7932</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <f>MIN(Expenses)</f>
+        <v>5313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3">
+        <f>AVERAGE(Expenses)</f>
+        <v>6617.166666666667</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -982,19 +1032,19 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1061,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1023,7 +1073,7 @@
         <v>4781.7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1035,7 +1085,7 @@
         <v>5393.7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1047,7 +1097,7 @@
         <v>6888.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1059,7 +1109,7 @@
         <v>5173.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1071,7 +1121,7 @@
         <v>6372</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1083,7 +1133,7 @@
         <v>5488.2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1095,7 +1145,7 @@
         <v>6959.7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1107,7 +1157,7 @@
         <v>5358.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1119,7 +1169,7 @@
         <v>7138.8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1131,7 +1181,7 @@
         <v>6377.4000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1143,7 +1193,7 @@
         <v>6220.8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1155,7 +1205,7 @@
         <v>5312.7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1168,7 +1218,7 @@
         <v>71465.399999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1177,7 +1227,7 @@
         <v>7932</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1186,7 +1236,7 @@
         <v>5313</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1205,23 +1255,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0969745E-598F-4959-B5F2-FF74D0C851E6}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1236,14 +1286,17 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>5313</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3">
+        <f>tblExpenses[[#This Row],[Expenses]]*rngPctSplit</f>
+        <v>2390.85</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1251,36 +1304,45 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>5993</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="3">
+        <f>tblExpenses[[#This Row],[Expenses]]*rngPctSplit</f>
+        <v>2696.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>7654</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3">
+        <f>tblExpenses[[#This Row],[Expenses]]*rngPctSplit</f>
+        <v>3444.3</v>
+      </c>
       <c r="E6" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>5748</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3">
+        <f>tblExpenses[[#This Row],[Expenses]]*rngPctSplit</f>
+        <v>2586.6</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1289,69 +1351,87 @@
         <v>7932</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>7080</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3">
+        <f>tblExpenses[[#This Row],[Expenses]]*rngPctSplit</f>
+        <v>3186</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>6098</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3">
+        <f>tblExpenses[[#This Row],[Expenses]]*rngPctSplit</f>
+        <v>2744.1</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>7733</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <f>tblExpenses[[#This Row],[Expenses]]*rngPctSplit</f>
+        <v>3479.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>5954</v>
       </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <f>tblExpenses[[#This Row],[Expenses]]*rngPctSplit</f>
+        <v>2679.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>7932</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <f>tblExpenses[[#This Row],[Expenses]]*rngPctSplit</f>
+        <v>3569.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>7086</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="3">
+        <f>tblExpenses[[#This Row],[Expenses]]*rngPctSplit</f>
+        <v>3188.7000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1359,7 +1439,10 @@
         <f>SUBTOTAL(109,tblExpenses[Expenses])</f>
         <v>66591</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4">
+        <f>SUBTOTAL(109,tblExpenses[Expense Split])</f>
+        <v>29965.95</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
